--- a/backtest_results.xlsx
+++ b/backtest_results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="672" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="672" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="IWM_EDV_VWO_ICF" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="MeritGain corr" sheetId="16" r:id="rId16"/>
     <sheet name="MeritAllocation%" sheetId="17" r:id="rId17"/>
     <sheet name="LongestLossStreak" sheetId="18" r:id="rId18"/>
+    <sheet name="inverseAssets" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="103">
   <si>
     <t>Winner</t>
   </si>
@@ -322,12 +323,36 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>Include inverse assets</t>
+  </si>
+  <si>
+    <t>Each month, an asset inverse was only considered if the asset's merit was &lt; 0.</t>
+  </si>
+  <si>
+    <t>iVGSIX</t>
+  </si>
+  <si>
+    <t>NBA+inverse</t>
+  </si>
+  <si>
+    <t>NBA only</t>
+  </si>
+  <si>
+    <t>iFEMKX</t>
+  </si>
+  <si>
+    <t>iFDVLX</t>
+  </si>
+  <si>
+    <t>iVUSTX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -378,6 +403,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -402,7 +433,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="461">
+  <cellStyleXfs count="511">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -864,8 +895,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -897,8 +978,10 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="461">
+  <cellStyles count="511">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1129,6 +1212,31 @@
     <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1359,6 +1467,31 @@
     <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -16857,7 +16990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C220"/>
     </sheetView>
   </sheetViews>
@@ -19289,6 +19422,4352 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N251"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:N251"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="C1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1997</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1.1863049999999999</v>
+      </c>
+      <c r="D2">
+        <v>1.2697419999999999</v>
+      </c>
+      <c r="J2" s="16">
+        <v>33969</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2">
+        <v>1.03</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>1998</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0.972576</v>
+      </c>
+      <c r="D3">
+        <v>0.86290100000000003</v>
+      </c>
+      <c r="J3" s="16">
+        <v>34000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>1999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1.49074</v>
+      </c>
+      <c r="D4">
+        <v>0.92209600000000003</v>
+      </c>
+      <c r="J4" s="16">
+        <v>34028</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>0.94</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1.1269849999999999</v>
+      </c>
+      <c r="D5">
+        <v>1.1693709999999999</v>
+      </c>
+      <c r="J5" s="16">
+        <v>34059</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1.0736250000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.96459399999999995</v>
+      </c>
+      <c r="J6" s="16">
+        <v>34089</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.15786675</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.6478709999999999E-2</v>
+      </c>
+      <c r="J7" s="16">
+        <v>34120</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="J8" s="16">
+        <v>34150</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8">
+        <v>1.05</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1.183308</v>
+      </c>
+      <c r="D9">
+        <v>1.1122730000000001</v>
+      </c>
+      <c r="J9" s="16">
+        <v>34181</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1.3923220000000001</v>
+      </c>
+      <c r="D10">
+        <v>1.27382</v>
+      </c>
+      <c r="J10" s="16">
+        <v>34212</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10">
+        <v>1.03</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1.226459</v>
+      </c>
+      <c r="D11">
+        <v>1.159983</v>
+      </c>
+      <c r="J11" s="16">
+        <v>34242</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1.2642979999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.857406</v>
+      </c>
+      <c r="J12" s="16">
+        <v>34273</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12">
+        <v>1.02</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1.1395999999999999</v>
+      </c>
+      <c r="D13">
+        <v>1.2651829999999999</v>
+      </c>
+      <c r="J13" s="16">
+        <v>34303</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <v>1.02</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.23827886000000001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.12259254999999999</v>
+      </c>
+      <c r="J14">
+        <v>1997</v>
+      </c>
+      <c r="L14">
+        <v>1.2697419999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.1863049999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="J15" s="16">
+        <v>34334</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>2007</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1.1403909999999999</v>
+      </c>
+      <c r="D16">
+        <v>1.1403909999999999</v>
+      </c>
+      <c r="J16" s="16">
+        <v>34365</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16">
+        <v>0.99</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0.99920200000000003</v>
+      </c>
+      <c r="D17">
+        <v>1.2762990000000001</v>
+      </c>
+      <c r="J17" s="16">
+        <v>34393</v>
+      </c>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17">
+        <v>1.04</v>
+      </c>
+      <c r="M17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>2009</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>1.9482930000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.91638399999999998</v>
+      </c>
+      <c r="J18" s="16">
+        <v>34424</v>
+      </c>
+      <c r="K18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>2010</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>1.2453179999999999</v>
+      </c>
+      <c r="D19">
+        <v>1.0576319999999999</v>
+      </c>
+      <c r="J19" s="16">
+        <v>34454</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19">
+        <v>0.84</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>2011</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>1.314522</v>
+      </c>
+      <c r="D20">
+        <v>1.2917050000000001</v>
+      </c>
+      <c r="J20" s="16">
+        <v>34485</v>
+      </c>
+      <c r="K20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.29443976999999999</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.12749962000000001</v>
+      </c>
+      <c r="J21" s="16">
+        <v>34515</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="J22" s="16">
+        <v>34546</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22">
+        <v>1.03</v>
+      </c>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>2012</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>1.072492</v>
+      </c>
+      <c r="D23">
+        <v>0.96535000000000004</v>
+      </c>
+      <c r="J23" s="16">
+        <v>34577</v>
+      </c>
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23">
+        <v>1.05</v>
+      </c>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>2013</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>1.116255</v>
+      </c>
+      <c r="D24">
+        <v>0.99746699999999999</v>
+      </c>
+      <c r="J24" s="16">
+        <v>34607</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>2014</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>1.2406900000000001</v>
+      </c>
+      <c r="D25">
+        <v>1.2194339999999999</v>
+      </c>
+      <c r="J25" s="16">
+        <v>34638</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25">
+        <v>1.02</v>
+      </c>
+      <c r="M25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="J26" s="16">
+        <v>34668</v>
+      </c>
+      <c r="K26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26">
+        <v>1.02</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.214</v>
+      </c>
+      <c r="D27" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J27">
+        <v>1998</v>
+      </c>
+      <c r="L27">
+        <v>0.86290100000000003</v>
+      </c>
+      <c r="N27">
+        <v>0.972576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="J28" s="16">
+        <v>34699</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28">
+        <v>0.97</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="C29" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29" s="16">
+        <v>34730</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29">
+        <v>0.95</v>
+      </c>
+      <c r="M29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="J30" s="16">
+        <v>34758</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="J31" s="16">
+        <v>34789</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="J32" s="16">
+        <v>34819</v>
+      </c>
+      <c r="K32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14">
+      <c r="J33" s="16">
+        <v>34850</v>
+      </c>
+      <c r="K33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14">
+      <c r="J34" s="16">
+        <v>34880</v>
+      </c>
+      <c r="K34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34">
+        <v>0.92</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14">
+      <c r="J35" s="16">
+        <v>34911</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14">
+      <c r="J36" s="16">
+        <v>34942</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14">
+      <c r="J37" s="16">
+        <v>34972</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14">
+      <c r="J38" s="16">
+        <v>35003</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14">
+      <c r="J39" s="16">
+        <v>35033</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14">
+      <c r="J40">
+        <v>1999</v>
+      </c>
+      <c r="L40">
+        <v>0.92209600000000003</v>
+      </c>
+      <c r="N40">
+        <v>1.49074</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14">
+      <c r="J41" s="16">
+        <v>35064</v>
+      </c>
+      <c r="K41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41">
+        <v>0.98</v>
+      </c>
+      <c r="M41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14">
+      <c r="J42" s="16">
+        <v>35095</v>
+      </c>
+      <c r="K42" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42">
+        <v>1.03</v>
+      </c>
+      <c r="M42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14">
+      <c r="J43" s="16">
+        <v>35124</v>
+      </c>
+      <c r="K43" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43">
+        <v>0.97</v>
+      </c>
+      <c r="M43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14">
+      <c r="J44" s="16">
+        <v>35155</v>
+      </c>
+      <c r="K44" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44">
+        <v>0.99</v>
+      </c>
+      <c r="M44" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="45" spans="10:14">
+      <c r="J45" s="16">
+        <v>35185</v>
+      </c>
+      <c r="K45" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="10:14">
+      <c r="J46" s="16">
+        <v>35216</v>
+      </c>
+      <c r="K46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L46">
+        <v>1.05</v>
+      </c>
+      <c r="M46" t="s">
+        <v>78</v>
+      </c>
+      <c r="N46">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="47" spans="10:14">
+      <c r="J47" s="16">
+        <v>35246</v>
+      </c>
+      <c r="K47" t="s">
+        <v>78</v>
+      </c>
+      <c r="L47">
+        <v>1.08</v>
+      </c>
+      <c r="M47" t="s">
+        <v>78</v>
+      </c>
+      <c r="N47">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="48" spans="10:14">
+      <c r="J48" s="16">
+        <v>35277</v>
+      </c>
+      <c r="K48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48">
+        <v>0.94</v>
+      </c>
+      <c r="M48" t="s">
+        <v>78</v>
+      </c>
+      <c r="N48">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14">
+      <c r="J49" s="16">
+        <v>35308</v>
+      </c>
+      <c r="K49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49">
+        <v>0.98</v>
+      </c>
+      <c r="M49" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14">
+      <c r="J50" s="16">
+        <v>35338</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14">
+      <c r="J51" s="16">
+        <v>35369</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14">
+      <c r="J52" s="16">
+        <v>35399</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14">
+      <c r="J53">
+        <v>2000</v>
+      </c>
+      <c r="L53">
+        <v>1.1693709999999999</v>
+      </c>
+      <c r="N53">
+        <v>1.1269849999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14">
+      <c r="J54" s="16">
+        <v>35430</v>
+      </c>
+      <c r="K54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14">
+      <c r="J55" s="16">
+        <v>35461</v>
+      </c>
+      <c r="K55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L55">
+        <v>1.03</v>
+      </c>
+      <c r="M55" t="s">
+        <v>77</v>
+      </c>
+      <c r="N55">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14">
+      <c r="J56" s="16">
+        <v>35489</v>
+      </c>
+      <c r="K56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L56">
+        <v>0.97</v>
+      </c>
+      <c r="M56" t="s">
+        <v>77</v>
+      </c>
+      <c r="N56">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14">
+      <c r="J57" s="16">
+        <v>35520</v>
+      </c>
+      <c r="K57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57">
+        <v>0.98</v>
+      </c>
+      <c r="M57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N57">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14">
+      <c r="J58" s="16">
+        <v>35550</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14">
+      <c r="J59" s="16">
+        <v>35581</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14">
+      <c r="J60" s="16">
+        <v>35611</v>
+      </c>
+      <c r="K60" t="s">
+        <v>78</v>
+      </c>
+      <c r="L60">
+        <v>0.98</v>
+      </c>
+      <c r="M60" t="s">
+        <v>78</v>
+      </c>
+      <c r="N60">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14">
+      <c r="J61" s="16">
+        <v>35642</v>
+      </c>
+      <c r="K61" t="s">
+        <v>78</v>
+      </c>
+      <c r="L61">
+        <v>1.03</v>
+      </c>
+      <c r="M61" t="s">
+        <v>78</v>
+      </c>
+      <c r="N61">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14">
+      <c r="J62" s="16">
+        <v>35673</v>
+      </c>
+      <c r="K62" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62">
+        <v>1.03</v>
+      </c>
+      <c r="M62" t="s">
+        <v>22</v>
+      </c>
+      <c r="N62">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14">
+      <c r="J63" s="16">
+        <v>35703</v>
+      </c>
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63">
+        <v>1.05</v>
+      </c>
+      <c r="M63" t="s">
+        <v>22</v>
+      </c>
+      <c r="N63">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14">
+      <c r="J64" s="16">
+        <v>35734</v>
+      </c>
+      <c r="K64" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64">
+        <v>0.95</v>
+      </c>
+      <c r="M64" t="s">
+        <v>22</v>
+      </c>
+      <c r="N64">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14">
+      <c r="J65" s="16">
+        <v>35764</v>
+      </c>
+      <c r="K65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65">
+        <v>0.97</v>
+      </c>
+      <c r="M65" t="s">
+        <v>22</v>
+      </c>
+      <c r="N65">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14">
+      <c r="J66">
+        <v>2001</v>
+      </c>
+      <c r="L66">
+        <v>0.96459399999999995</v>
+      </c>
+      <c r="N66">
+        <v>1.0736250000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14">
+      <c r="J67" t="s">
+        <v>15</v>
+      </c>
+      <c r="L67" s="5">
+        <v>2.6478709999999999E-2</v>
+      </c>
+      <c r="N67" s="5">
+        <v>0.15786675</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14">
+      <c r="J69" s="16">
+        <v>35795</v>
+      </c>
+      <c r="K69" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69">
+        <v>1.02</v>
+      </c>
+      <c r="M69" t="s">
+        <v>23</v>
+      </c>
+      <c r="N69">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14">
+      <c r="J70" s="16">
+        <v>35826</v>
+      </c>
+      <c r="K70" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70">
+        <v>1.03</v>
+      </c>
+      <c r="M70" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14">
+      <c r="J71" s="16">
+        <v>35854</v>
+      </c>
+      <c r="K71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71">
+        <v>1.05</v>
+      </c>
+      <c r="M71" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14">
+      <c r="J72" s="16">
+        <v>35885</v>
+      </c>
+      <c r="K72" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72">
+        <v>1.01</v>
+      </c>
+      <c r="M72" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14">
+      <c r="J73" s="16">
+        <v>35915</v>
+      </c>
+      <c r="K73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73">
+        <v>0.98</v>
+      </c>
+      <c r="M73" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14">
+      <c r="J74" s="16">
+        <v>35946</v>
+      </c>
+      <c r="K74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74">
+        <v>1.02</v>
+      </c>
+      <c r="M74" t="s">
+        <v>22</v>
+      </c>
+      <c r="N74">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="75" spans="10:14">
+      <c r="J75" s="16">
+        <v>35976</v>
+      </c>
+      <c r="K75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75">
+        <v>1.03</v>
+      </c>
+      <c r="M75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N75">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="76" spans="10:14">
+      <c r="J76" s="16">
+        <v>36007</v>
+      </c>
+      <c r="K76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76">
+        <v>1.06</v>
+      </c>
+      <c r="M76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N76">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14">
+      <c r="J77" s="16">
+        <v>36038</v>
+      </c>
+      <c r="K77" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77">
+        <v>1.02</v>
+      </c>
+      <c r="M77" t="s">
+        <v>22</v>
+      </c>
+      <c r="N77">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14">
+      <c r="J78" s="16">
+        <v>36068</v>
+      </c>
+      <c r="K78" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78">
+        <v>0.98</v>
+      </c>
+      <c r="M78" t="s">
+        <v>22</v>
+      </c>
+      <c r="N78">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="79" spans="10:14">
+      <c r="J79" s="16">
+        <v>36099</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L79" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N79" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="80" spans="10:14">
+      <c r="J80" s="16">
+        <v>36129</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L80" s="3">
+        <v>1</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="81" spans="10:14">
+      <c r="J81">
+        <v>2002</v>
+      </c>
+      <c r="L81">
+        <v>1.1122730000000001</v>
+      </c>
+      <c r="N81">
+        <v>1.183308</v>
+      </c>
+    </row>
+    <row r="82" spans="10:14">
+      <c r="J82" s="16">
+        <v>36160</v>
+      </c>
+      <c r="K82" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82">
+        <v>0.99</v>
+      </c>
+      <c r="M82" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="83" spans="10:14">
+      <c r="J83" s="16">
+        <v>36191</v>
+      </c>
+      <c r="K83" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83">
+        <v>1.03</v>
+      </c>
+      <c r="M83" t="s">
+        <v>22</v>
+      </c>
+      <c r="N83">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="84" spans="10:14">
+      <c r="J84" s="16">
+        <v>36219</v>
+      </c>
+      <c r="K84" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84">
+        <v>0.99</v>
+      </c>
+      <c r="M84" t="s">
+        <v>22</v>
+      </c>
+      <c r="N84">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="85" spans="10:14">
+      <c r="J85" s="16">
+        <v>36250</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N85" s="3">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="86" spans="10:14">
+      <c r="J86" s="16">
+        <v>36280</v>
+      </c>
+      <c r="K86" t="s">
+        <v>78</v>
+      </c>
+      <c r="L86">
+        <v>1.05</v>
+      </c>
+      <c r="M86" t="s">
+        <v>78</v>
+      </c>
+      <c r="N86">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="87" spans="10:14">
+      <c r="J87" s="16">
+        <v>36311</v>
+      </c>
+      <c r="K87" t="s">
+        <v>78</v>
+      </c>
+      <c r="L87">
+        <v>1.03</v>
+      </c>
+      <c r="M87" t="s">
+        <v>78</v>
+      </c>
+      <c r="N87">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="88" spans="10:14">
+      <c r="J88" s="16">
+        <v>36341</v>
+      </c>
+      <c r="K88" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88">
+        <v>1.04</v>
+      </c>
+      <c r="M88" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="89" spans="10:14">
+      <c r="J89" s="16">
+        <v>36372</v>
+      </c>
+      <c r="K89" t="s">
+        <v>23</v>
+      </c>
+      <c r="L89">
+        <v>1.08</v>
+      </c>
+      <c r="M89" t="s">
+        <v>23</v>
+      </c>
+      <c r="N89">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="90" spans="10:14">
+      <c r="J90" s="16">
+        <v>36403</v>
+      </c>
+      <c r="K90" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90" t="s">
+        <v>23</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="10:14">
+      <c r="J91" s="16">
+        <v>36433</v>
+      </c>
+      <c r="K91" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91">
+        <v>1.08</v>
+      </c>
+      <c r="M91" t="s">
+        <v>23</v>
+      </c>
+      <c r="N91">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="92" spans="10:14">
+      <c r="J92" s="16">
+        <v>36464</v>
+      </c>
+      <c r="K92" t="s">
+        <v>23</v>
+      </c>
+      <c r="L92">
+        <v>1.02</v>
+      </c>
+      <c r="M92" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="93" spans="10:14">
+      <c r="J93" s="16">
+        <v>36494</v>
+      </c>
+      <c r="K93" t="s">
+        <v>78</v>
+      </c>
+      <c r="L93">
+        <v>1.02</v>
+      </c>
+      <c r="M93" t="s">
+        <v>78</v>
+      </c>
+      <c r="N93">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="94" spans="10:14">
+      <c r="J94">
+        <v>2003</v>
+      </c>
+      <c r="L94">
+        <v>1.27382</v>
+      </c>
+      <c r="N94">
+        <v>1.3923220000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="10:14">
+      <c r="J95" s="16">
+        <v>36525</v>
+      </c>
+      <c r="K95" t="s">
+        <v>77</v>
+      </c>
+      <c r="L95">
+        <v>1.03</v>
+      </c>
+      <c r="M95" t="s">
+        <v>77</v>
+      </c>
+      <c r="N95">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="96" spans="10:14">
+      <c r="J96" s="16">
+        <v>36556</v>
+      </c>
+      <c r="K96" t="s">
+        <v>77</v>
+      </c>
+      <c r="L96">
+        <v>1.04</v>
+      </c>
+      <c r="M96" t="s">
+        <v>77</v>
+      </c>
+      <c r="N96">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="97" spans="10:14">
+      <c r="J97" s="16">
+        <v>36585</v>
+      </c>
+      <c r="K97" t="s">
+        <v>78</v>
+      </c>
+      <c r="L97">
+        <v>1.05</v>
+      </c>
+      <c r="M97" t="s">
+        <v>78</v>
+      </c>
+      <c r="N97">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="98" spans="10:14">
+      <c r="J98" s="16">
+        <v>36616</v>
+      </c>
+      <c r="K98" t="s">
+        <v>78</v>
+      </c>
+      <c r="L98">
+        <v>0.86</v>
+      </c>
+      <c r="M98" t="s">
+        <v>78</v>
+      </c>
+      <c r="N98">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="99" spans="10:14">
+      <c r="J99" s="16">
+        <v>36646</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="100" spans="10:14">
+      <c r="J100" s="16">
+        <v>36677</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N100" s="3">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="101" spans="10:14">
+      <c r="J101" s="16">
+        <v>36707</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N101" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="102" spans="10:14">
+      <c r="J102" s="16">
+        <v>36738</v>
+      </c>
+      <c r="K102" t="s">
+        <v>78</v>
+      </c>
+      <c r="L102">
+        <v>1.06</v>
+      </c>
+      <c r="M102" t="s">
+        <v>78</v>
+      </c>
+      <c r="N102">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="103" spans="10:14">
+      <c r="J103" s="16">
+        <v>36769</v>
+      </c>
+      <c r="K103" t="s">
+        <v>22</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103" t="s">
+        <v>22</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="10:14">
+      <c r="J104" s="16">
+        <v>36799</v>
+      </c>
+      <c r="K104" t="s">
+        <v>22</v>
+      </c>
+      <c r="L104">
+        <v>1.02</v>
+      </c>
+      <c r="M104" t="s">
+        <v>22</v>
+      </c>
+      <c r="N104">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="105" spans="10:14">
+      <c r="J105" s="16">
+        <v>36830</v>
+      </c>
+      <c r="K105" t="s">
+        <v>23</v>
+      </c>
+      <c r="L105">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M105" t="s">
+        <v>23</v>
+      </c>
+      <c r="N105">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="10:14">
+      <c r="J106" s="16">
+        <v>36860</v>
+      </c>
+      <c r="K106" t="s">
+        <v>23</v>
+      </c>
+      <c r="L106">
+        <v>1.05</v>
+      </c>
+      <c r="M106" t="s">
+        <v>23</v>
+      </c>
+      <c r="N106">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="107" spans="10:14">
+      <c r="J107">
+        <v>2004</v>
+      </c>
+      <c r="L107">
+        <v>1.159983</v>
+      </c>
+      <c r="N107">
+        <v>1.226459</v>
+      </c>
+    </row>
+    <row r="108" spans="10:14">
+      <c r="J108" s="16">
+        <v>36891</v>
+      </c>
+      <c r="K108" t="s">
+        <v>78</v>
+      </c>
+      <c r="L108">
+        <v>0.93</v>
+      </c>
+      <c r="M108" t="s">
+        <v>78</v>
+      </c>
+      <c r="N108">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="109" spans="10:14">
+      <c r="J109" s="16">
+        <v>36922</v>
+      </c>
+      <c r="K109" t="s">
+        <v>23</v>
+      </c>
+      <c r="L109">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M109" t="s">
+        <v>23</v>
+      </c>
+      <c r="N109">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="10:14">
+      <c r="J110" s="16">
+        <v>36950</v>
+      </c>
+      <c r="K110" t="s">
+        <v>23</v>
+      </c>
+      <c r="L110">
+        <v>0.95</v>
+      </c>
+      <c r="M110" t="s">
+        <v>23</v>
+      </c>
+      <c r="N110">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="111" spans="10:14">
+      <c r="J111" s="16">
+        <v>36981</v>
+      </c>
+      <c r="K111" t="s">
+        <v>23</v>
+      </c>
+      <c r="L111">
+        <v>0.96</v>
+      </c>
+      <c r="M111" t="s">
+        <v>23</v>
+      </c>
+      <c r="N111">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="112" spans="10:14">
+      <c r="J112" s="16">
+        <v>37011</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L112" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N112" s="3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="113" spans="10:14">
+      <c r="J113" s="16">
+        <v>37042</v>
+      </c>
+      <c r="K113" t="s">
+        <v>22</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113" t="s">
+        <v>22</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="10:14">
+      <c r="J114" s="16">
+        <v>37072</v>
+      </c>
+      <c r="K114" t="s">
+        <v>78</v>
+      </c>
+      <c r="L114">
+        <v>1.06</v>
+      </c>
+      <c r="M114" t="s">
+        <v>78</v>
+      </c>
+      <c r="N114">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="115" spans="10:14">
+      <c r="J115" s="16">
+        <v>37103</v>
+      </c>
+      <c r="K115" t="s">
+        <v>77</v>
+      </c>
+      <c r="L115">
+        <v>0.99</v>
+      </c>
+      <c r="M115" t="s">
+        <v>77</v>
+      </c>
+      <c r="N115">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="116" spans="10:14">
+      <c r="J116" s="16">
+        <v>37134</v>
+      </c>
+      <c r="K116" t="s">
+        <v>23</v>
+      </c>
+      <c r="L116">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M116" t="s">
+        <v>23</v>
+      </c>
+      <c r="N116">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="10:14">
+      <c r="J117" s="16">
+        <v>37164</v>
+      </c>
+      <c r="K117" t="s">
+        <v>23</v>
+      </c>
+      <c r="L117">
+        <v>0.95</v>
+      </c>
+      <c r="M117" t="s">
+        <v>23</v>
+      </c>
+      <c r="N117">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="118" spans="10:14">
+      <c r="J118" s="16">
+        <v>37195</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L118" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N118" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="10:14">
+      <c r="J119" s="16">
+        <v>37225</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L119" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N119" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="10:14">
+      <c r="J120">
+        <v>2005</v>
+      </c>
+      <c r="L120">
+        <v>0.857406</v>
+      </c>
+      <c r="N120">
+        <v>1.2642979999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="10:14">
+      <c r="J121" s="16">
+        <v>37256</v>
+      </c>
+      <c r="K121" t="s">
+        <v>23</v>
+      </c>
+      <c r="L121">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M121" t="s">
+        <v>23</v>
+      </c>
+      <c r="N121">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="10:14">
+      <c r="J122" s="16">
+        <v>37287</v>
+      </c>
+      <c r="K122" t="s">
+        <v>23</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122" t="s">
+        <v>23</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="10:14">
+      <c r="J123" s="16">
+        <v>37315</v>
+      </c>
+      <c r="K123" t="s">
+        <v>23</v>
+      </c>
+      <c r="L123">
+        <v>1.03</v>
+      </c>
+      <c r="M123" t="s">
+        <v>23</v>
+      </c>
+      <c r="N123">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="124" spans="10:14">
+      <c r="J124" s="16">
+        <v>37346</v>
+      </c>
+      <c r="K124" t="s">
+        <v>78</v>
+      </c>
+      <c r="L124">
+        <v>0.97</v>
+      </c>
+      <c r="M124" t="s">
+        <v>78</v>
+      </c>
+      <c r="N124">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="125" spans="10:14">
+      <c r="J125" s="16">
+        <v>37376</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L125" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N125" s="3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="126" spans="10:14">
+      <c r="J126" s="16">
+        <v>37407</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L126" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="10:14">
+      <c r="J127" s="16">
+        <v>37437</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L127" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="M127" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N127" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="128" spans="10:14">
+      <c r="J128" s="16">
+        <v>37468</v>
+      </c>
+      <c r="K128" t="s">
+        <v>78</v>
+      </c>
+      <c r="L128">
+        <v>1.04</v>
+      </c>
+      <c r="M128" t="s">
+        <v>78</v>
+      </c>
+      <c r="N128">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="129" spans="10:14">
+      <c r="J129" s="16">
+        <v>37499</v>
+      </c>
+      <c r="K129" t="s">
+        <v>78</v>
+      </c>
+      <c r="L129">
+        <v>1.02</v>
+      </c>
+      <c r="M129" t="s">
+        <v>78</v>
+      </c>
+      <c r="N129">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="130" spans="10:14">
+      <c r="J130" s="16">
+        <v>37529</v>
+      </c>
+      <c r="K130" t="s">
+        <v>22</v>
+      </c>
+      <c r="L130">
+        <v>1.01</v>
+      </c>
+      <c r="M130" t="s">
+        <v>22</v>
+      </c>
+      <c r="N130">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="131" spans="10:14">
+      <c r="J131" s="16">
+        <v>37560</v>
+      </c>
+      <c r="K131" t="s">
+        <v>78</v>
+      </c>
+      <c r="L131">
+        <v>1.05</v>
+      </c>
+      <c r="M131" t="s">
+        <v>78</v>
+      </c>
+      <c r="N131">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="132" spans="10:14">
+      <c r="J132" s="16">
+        <v>37590</v>
+      </c>
+      <c r="K132" t="s">
+        <v>77</v>
+      </c>
+      <c r="L132">
+        <v>1.01</v>
+      </c>
+      <c r="M132" t="s">
+        <v>77</v>
+      </c>
+      <c r="N132">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="133" spans="10:14">
+      <c r="J133">
+        <v>2006</v>
+      </c>
+      <c r="L133">
+        <v>1.2651829999999999</v>
+      </c>
+      <c r="N133">
+        <v>1.1395999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="10:14">
+      <c r="J134" t="s">
+        <v>15</v>
+      </c>
+      <c r="L134" s="5">
+        <v>0.12259254999999999</v>
+      </c>
+      <c r="N134" s="5">
+        <v>0.23827886000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="10:14">
+      <c r="J136" s="16">
+        <v>37621</v>
+      </c>
+      <c r="K136" t="s">
+        <v>23</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136" t="s">
+        <v>23</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="10:14">
+      <c r="J137" s="16">
+        <v>37652</v>
+      </c>
+      <c r="K137" t="s">
+        <v>77</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137" t="s">
+        <v>77</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="10:14">
+      <c r="J138" s="16">
+        <v>37680</v>
+      </c>
+      <c r="K138" t="s">
+        <v>77</v>
+      </c>
+      <c r="L138">
+        <v>1.01</v>
+      </c>
+      <c r="M138" t="s">
+        <v>77</v>
+      </c>
+      <c r="N138">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="139" spans="10:14">
+      <c r="J139" s="16">
+        <v>37711</v>
+      </c>
+      <c r="K139" t="s">
+        <v>77</v>
+      </c>
+      <c r="L139">
+        <v>1.04</v>
+      </c>
+      <c r="M139" t="s">
+        <v>77</v>
+      </c>
+      <c r="N139">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="140" spans="10:14">
+      <c r="J140" s="16">
+        <v>37741</v>
+      </c>
+      <c r="K140" t="s">
+        <v>23</v>
+      </c>
+      <c r="L140">
+        <v>1.08</v>
+      </c>
+      <c r="M140" t="s">
+        <v>23</v>
+      </c>
+      <c r="N140">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="141" spans="10:14">
+      <c r="J141" s="16">
+        <v>37772</v>
+      </c>
+      <c r="K141" t="s">
+        <v>77</v>
+      </c>
+      <c r="L141">
+        <v>0.99</v>
+      </c>
+      <c r="M141" t="s">
+        <v>77</v>
+      </c>
+      <c r="N141">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="142" spans="10:14">
+      <c r="J142" s="16">
+        <v>37802</v>
+      </c>
+      <c r="K142" t="s">
+        <v>23</v>
+      </c>
+      <c r="L142">
+        <v>1.01</v>
+      </c>
+      <c r="M142" t="s">
+        <v>23</v>
+      </c>
+      <c r="N142">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="143" spans="10:14">
+      <c r="J143" s="16">
+        <v>37833</v>
+      </c>
+      <c r="K143" t="s">
+        <v>23</v>
+      </c>
+      <c r="L143">
+        <v>1.01</v>
+      </c>
+      <c r="M143" t="s">
+        <v>23</v>
+      </c>
+      <c r="N143">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="144" spans="10:14">
+      <c r="J144" s="16">
+        <v>37864</v>
+      </c>
+      <c r="K144" t="s">
+        <v>22</v>
+      </c>
+      <c r="L144">
+        <v>1.01</v>
+      </c>
+      <c r="M144" t="s">
+        <v>22</v>
+      </c>
+      <c r="N144">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="145" spans="10:14">
+      <c r="J145" s="16">
+        <v>37894</v>
+      </c>
+      <c r="K145" t="s">
+        <v>22</v>
+      </c>
+      <c r="L145">
+        <v>1.02</v>
+      </c>
+      <c r="M145" t="s">
+        <v>22</v>
+      </c>
+      <c r="N145">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="146" spans="10:14">
+      <c r="J146" s="16">
+        <v>37925</v>
+      </c>
+      <c r="K146" t="s">
+        <v>23</v>
+      </c>
+      <c r="L146">
+        <v>0.96</v>
+      </c>
+      <c r="M146" t="s">
+        <v>23</v>
+      </c>
+      <c r="N146">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="147" spans="10:14">
+      <c r="J147" s="16">
+        <v>37955</v>
+      </c>
+      <c r="K147" t="s">
+        <v>22</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147" t="s">
+        <v>22</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="10:14">
+      <c r="J148">
+        <v>2007</v>
+      </c>
+      <c r="L148">
+        <v>1.1403909999999999</v>
+      </c>
+      <c r="N148">
+        <v>1.1403909999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="10:14">
+      <c r="J149" s="16">
+        <v>37986</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L149" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N149" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="150" spans="10:14">
+      <c r="J150" s="16">
+        <v>38017</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L150" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="10:14">
+      <c r="J151" s="16">
+        <v>38046</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L151" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N151" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="10:14">
+      <c r="J152" s="16">
+        <v>38077</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L152" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N152" s="3">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="153" spans="10:14">
+      <c r="J153" s="16">
+        <v>38107</v>
+      </c>
+      <c r="K153" t="s">
+        <v>78</v>
+      </c>
+      <c r="L153">
+        <v>0.96</v>
+      </c>
+      <c r="M153" t="s">
+        <v>78</v>
+      </c>
+      <c r="N153">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="154" spans="10:14">
+      <c r="J154" s="16">
+        <v>38138</v>
+      </c>
+      <c r="K154" t="s">
+        <v>77</v>
+      </c>
+      <c r="L154">
+        <v>0.91</v>
+      </c>
+      <c r="M154" t="s">
+        <v>77</v>
+      </c>
+      <c r="N154">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="155" spans="10:14">
+      <c r="J155" s="16">
+        <v>38168</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L155" s="3">
+        <v>1</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N155" s="3">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="156" spans="10:14">
+      <c r="J156" s="16">
+        <v>38199</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L156" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N156" s="3">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="157" spans="10:14">
+      <c r="J157" s="16">
+        <v>38230</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L157" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N157" s="3">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="158" spans="10:14">
+      <c r="J158" s="16">
+        <v>38260</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L158" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N158" s="3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="159" spans="10:14">
+      <c r="J159" s="16">
+        <v>38291</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L159" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N159" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="10:14">
+      <c r="J160" s="16">
+        <v>38321</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L160" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N160" s="3">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="161" spans="10:14">
+      <c r="J161">
+        <v>2008</v>
+      </c>
+      <c r="L161">
+        <v>1.2762990000000001</v>
+      </c>
+      <c r="N161">
+        <v>0.99920200000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="10:14">
+      <c r="J162" s="16">
+        <v>38352</v>
+      </c>
+      <c r="K162" t="s">
+        <v>22</v>
+      </c>
+      <c r="L162">
+        <v>0.95</v>
+      </c>
+      <c r="M162" t="s">
+        <v>22</v>
+      </c>
+      <c r="N162">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="163" spans="10:14">
+      <c r="J163" s="16">
+        <v>38383</v>
+      </c>
+      <c r="K163" t="s">
+        <v>22</v>
+      </c>
+      <c r="L163">
+        <v>0.99</v>
+      </c>
+      <c r="M163" t="s">
+        <v>22</v>
+      </c>
+      <c r="N163">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="164" spans="10:14">
+      <c r="J164" s="16">
+        <v>38411</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L164" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N164" s="3">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="165" spans="10:14">
+      <c r="J165" s="16">
+        <v>38442</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L165" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="M165" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N165" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="10:14">
+      <c r="J166" s="16">
+        <v>38472</v>
+      </c>
+      <c r="K166" t="s">
+        <v>23</v>
+      </c>
+      <c r="L166">
+        <v>1.23</v>
+      </c>
+      <c r="M166" t="s">
+        <v>23</v>
+      </c>
+      <c r="N166">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="167" spans="10:14">
+      <c r="J167" s="16">
+        <v>38503</v>
+      </c>
+      <c r="K167" t="s">
+        <v>23</v>
+      </c>
+      <c r="L167">
+        <v>0.97</v>
+      </c>
+      <c r="M167" t="s">
+        <v>23</v>
+      </c>
+      <c r="N167">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="168" spans="10:14">
+      <c r="J168" s="16">
+        <v>38533</v>
+      </c>
+      <c r="K168" t="s">
+        <v>23</v>
+      </c>
+      <c r="L168">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M168" t="s">
+        <v>23</v>
+      </c>
+      <c r="N168">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="10:14">
+      <c r="J169" s="16">
+        <v>38564</v>
+      </c>
+      <c r="K169" t="s">
+        <v>23</v>
+      </c>
+      <c r="L169">
+        <v>0.95</v>
+      </c>
+      <c r="M169" t="s">
+        <v>23</v>
+      </c>
+      <c r="N169">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="170" spans="10:14">
+      <c r="J170" s="16">
+        <v>38595</v>
+      </c>
+      <c r="K170" t="s">
+        <v>77</v>
+      </c>
+      <c r="L170">
+        <v>1.04</v>
+      </c>
+      <c r="M170" t="s">
+        <v>77</v>
+      </c>
+      <c r="N170">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="171" spans="10:14">
+      <c r="J171" s="16">
+        <v>38625</v>
+      </c>
+      <c r="K171" t="s">
+        <v>78</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171" t="s">
+        <v>78</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="10:14">
+      <c r="J172" s="16">
+        <v>38656</v>
+      </c>
+      <c r="K172" t="s">
+        <v>23</v>
+      </c>
+      <c r="L172">
+        <v>1.08</v>
+      </c>
+      <c r="M172" t="s">
+        <v>23</v>
+      </c>
+      <c r="N172">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="173" spans="10:14">
+      <c r="J173" s="16">
+        <v>38686</v>
+      </c>
+      <c r="K173" t="s">
+        <v>23</v>
+      </c>
+      <c r="L173">
+        <v>1.04</v>
+      </c>
+      <c r="M173" t="s">
+        <v>23</v>
+      </c>
+      <c r="N173">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="174" spans="10:14">
+      <c r="J174">
+        <v>2009</v>
+      </c>
+      <c r="L174">
+        <v>0.91638399999999998</v>
+      </c>
+      <c r="N174">
+        <v>1.9482930000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="10:14">
+      <c r="J175" s="16">
+        <v>38717</v>
+      </c>
+      <c r="K175" t="s">
+        <v>78</v>
+      </c>
+      <c r="L175">
+        <v>0.97</v>
+      </c>
+      <c r="M175" t="s">
+        <v>78</v>
+      </c>
+      <c r="N175">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="176" spans="10:14">
+      <c r="J176" s="16">
+        <v>38748</v>
+      </c>
+      <c r="K176" t="s">
+        <v>77</v>
+      </c>
+      <c r="L176">
+        <v>1.04</v>
+      </c>
+      <c r="M176" t="s">
+        <v>77</v>
+      </c>
+      <c r="N176">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="177" spans="10:14">
+      <c r="J177" s="16">
+        <v>38776</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L177" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N177" s="3">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="178" spans="10:14">
+      <c r="J178" s="16">
+        <v>38807</v>
+      </c>
+      <c r="K178" t="s">
+        <v>78</v>
+      </c>
+      <c r="L178">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M178" t="s">
+        <v>78</v>
+      </c>
+      <c r="N178">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="10:14">
+      <c r="J179" s="16">
+        <v>38837</v>
+      </c>
+      <c r="K179" t="s">
+        <v>77</v>
+      </c>
+      <c r="L179">
+        <v>0.87</v>
+      </c>
+      <c r="M179" t="s">
+        <v>77</v>
+      </c>
+      <c r="N179">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="180" spans="10:14">
+      <c r="J180" s="16">
+        <v>38868</v>
+      </c>
+      <c r="K180" t="s">
+        <v>22</v>
+      </c>
+      <c r="L180">
+        <v>1.04</v>
+      </c>
+      <c r="M180" t="s">
+        <v>22</v>
+      </c>
+      <c r="N180">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="181" spans="10:14">
+      <c r="J181" s="16">
+        <v>38898</v>
+      </c>
+      <c r="K181" t="s">
+        <v>22</v>
+      </c>
+      <c r="L181">
+        <v>0.99</v>
+      </c>
+      <c r="M181" t="s">
+        <v>22</v>
+      </c>
+      <c r="N181">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="182" spans="10:14">
+      <c r="J182" s="16">
+        <v>38929</v>
+      </c>
+      <c r="K182" t="s">
+        <v>22</v>
+      </c>
+      <c r="L182">
+        <v>1.06</v>
+      </c>
+      <c r="M182" t="s">
+        <v>22</v>
+      </c>
+      <c r="N182">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="183" spans="10:14">
+      <c r="J183" s="16">
+        <v>38960</v>
+      </c>
+      <c r="K183" t="s">
+        <v>22</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183" t="s">
+        <v>22</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="10:14">
+      <c r="J184" s="16">
+        <v>38990</v>
+      </c>
+      <c r="K184" t="s">
+        <v>23</v>
+      </c>
+      <c r="L184">
+        <v>1.04</v>
+      </c>
+      <c r="M184" t="s">
+        <v>23</v>
+      </c>
+      <c r="N184">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="185" spans="10:14">
+      <c r="J185" s="16">
+        <v>39021</v>
+      </c>
+      <c r="K185" t="s">
+        <v>23</v>
+      </c>
+      <c r="L185">
+        <v>0.99</v>
+      </c>
+      <c r="M185" t="s">
+        <v>23</v>
+      </c>
+      <c r="N185">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="186" spans="10:14">
+      <c r="J186" s="16">
+        <v>39051</v>
+      </c>
+      <c r="K186" t="s">
+        <v>77</v>
+      </c>
+      <c r="L186">
+        <v>1.07</v>
+      </c>
+      <c r="M186" t="s">
+        <v>77</v>
+      </c>
+      <c r="N186">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="187" spans="10:14">
+      <c r="J187">
+        <v>2010</v>
+      </c>
+      <c r="L187">
+        <v>1.0576319999999999</v>
+      </c>
+      <c r="N187">
+        <v>1.2453179999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="10:14">
+      <c r="J188" s="16">
+        <v>39082</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L188" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N188" s="3">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="189" spans="10:14">
+      <c r="J189" s="16">
+        <v>39113</v>
+      </c>
+      <c r="K189" t="s">
+        <v>77</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189" t="s">
+        <v>77</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="10:14">
+      <c r="J190" s="16">
+        <v>39141</v>
+      </c>
+      <c r="K190" t="s">
+        <v>77</v>
+      </c>
+      <c r="L190">
+        <v>1.03</v>
+      </c>
+      <c r="M190" t="s">
+        <v>77</v>
+      </c>
+      <c r="N190">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="191" spans="10:14">
+      <c r="J191" s="16">
+        <v>39172</v>
+      </c>
+      <c r="K191" t="s">
+        <v>77</v>
+      </c>
+      <c r="L191">
+        <v>1.02</v>
+      </c>
+      <c r="M191" t="s">
+        <v>77</v>
+      </c>
+      <c r="N191">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="192" spans="10:14">
+      <c r="J192" s="16">
+        <v>39202</v>
+      </c>
+      <c r="K192" t="s">
+        <v>23</v>
+      </c>
+      <c r="L192">
+        <v>0.95</v>
+      </c>
+      <c r="M192" t="s">
+        <v>23</v>
+      </c>
+      <c r="N192">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="193" spans="10:14">
+      <c r="J193" s="16">
+        <v>39233</v>
+      </c>
+      <c r="K193" t="s">
+        <v>78</v>
+      </c>
+      <c r="L193">
+        <v>1.01</v>
+      </c>
+      <c r="M193" t="s">
+        <v>78</v>
+      </c>
+      <c r="N193">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="194" spans="10:14">
+      <c r="J194" s="16">
+        <v>39263</v>
+      </c>
+      <c r="K194" t="s">
+        <v>22</v>
+      </c>
+      <c r="L194">
+        <v>1.05</v>
+      </c>
+      <c r="M194" t="s">
+        <v>22</v>
+      </c>
+      <c r="N194">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="195" spans="10:14">
+      <c r="J195" s="16">
+        <v>39294</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L195" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M195" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N195" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="10:14">
+      <c r="J196" s="16">
+        <v>39325</v>
+      </c>
+      <c r="K196" t="s">
+        <v>22</v>
+      </c>
+      <c r="L196">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M196" t="s">
+        <v>22</v>
+      </c>
+      <c r="N196">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="10:14">
+      <c r="J197" s="16">
+        <v>39355</v>
+      </c>
+      <c r="K197" t="s">
+        <v>22</v>
+      </c>
+      <c r="L197">
+        <v>0.97</v>
+      </c>
+      <c r="M197" t="s">
+        <v>22</v>
+      </c>
+      <c r="N197">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="198" spans="10:14">
+      <c r="J198" s="16">
+        <v>39386</v>
+      </c>
+      <c r="K198" t="s">
+        <v>22</v>
+      </c>
+      <c r="L198">
+        <v>0.99</v>
+      </c>
+      <c r="M198" t="s">
+        <v>22</v>
+      </c>
+      <c r="N198">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="199" spans="10:14">
+      <c r="J199" s="16">
+        <v>39416</v>
+      </c>
+      <c r="K199" t="s">
+        <v>22</v>
+      </c>
+      <c r="L199">
+        <v>1.02</v>
+      </c>
+      <c r="M199" t="s">
+        <v>22</v>
+      </c>
+      <c r="N199">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="200" spans="10:14">
+      <c r="J200">
+        <v>2011</v>
+      </c>
+      <c r="L200">
+        <v>1.2917050000000001</v>
+      </c>
+      <c r="N200">
+        <v>1.314522</v>
+      </c>
+    </row>
+    <row r="201" spans="10:14">
+      <c r="J201" t="s">
+        <v>15</v>
+      </c>
+      <c r="L201" s="5">
+        <v>0.12749962000000001</v>
+      </c>
+      <c r="N201" s="5">
+        <v>0.29443976999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="10:14">
+      <c r="J203" s="16">
+        <v>39447</v>
+      </c>
+      <c r="K203" t="s">
+        <v>78</v>
+      </c>
+      <c r="L203">
+        <v>1.07</v>
+      </c>
+      <c r="M203" t="s">
+        <v>78</v>
+      </c>
+      <c r="N203">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="204" spans="10:14">
+      <c r="J204" s="16">
+        <v>39478</v>
+      </c>
+      <c r="K204" t="s">
+        <v>78</v>
+      </c>
+      <c r="L204">
+        <v>0.99</v>
+      </c>
+      <c r="M204" t="s">
+        <v>78</v>
+      </c>
+      <c r="N204">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="205" spans="10:14">
+      <c r="J205" s="16">
+        <v>39507</v>
+      </c>
+      <c r="K205" t="s">
+        <v>77</v>
+      </c>
+      <c r="L205">
+        <v>1.02</v>
+      </c>
+      <c r="M205" t="s">
+        <v>77</v>
+      </c>
+      <c r="N205">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="206" spans="10:14">
+      <c r="J206" s="16">
+        <v>39538</v>
+      </c>
+      <c r="K206" t="s">
+        <v>77</v>
+      </c>
+      <c r="L206">
+        <v>0.99</v>
+      </c>
+      <c r="M206" t="s">
+        <v>77</v>
+      </c>
+      <c r="N206">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="207" spans="10:14">
+      <c r="J207" s="16">
+        <v>39568</v>
+      </c>
+      <c r="K207" t="s">
+        <v>78</v>
+      </c>
+      <c r="L207">
+        <v>0.92</v>
+      </c>
+      <c r="M207" t="s">
+        <v>78</v>
+      </c>
+      <c r="N207">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="208" spans="10:14">
+      <c r="J208" s="16">
+        <v>39599</v>
+      </c>
+      <c r="K208" t="s">
+        <v>22</v>
+      </c>
+      <c r="L208">
+        <v>0.97</v>
+      </c>
+      <c r="M208" t="s">
+        <v>22</v>
+      </c>
+      <c r="N208">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="209" spans="10:14">
+      <c r="J209" s="16">
+        <v>39629</v>
+      </c>
+      <c r="K209" t="s">
+        <v>22</v>
+      </c>
+      <c r="L209">
+        <v>1.02</v>
+      </c>
+      <c r="M209" t="s">
+        <v>22</v>
+      </c>
+      <c r="N209">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="210" spans="10:14">
+      <c r="J210" s="16">
+        <v>39660</v>
+      </c>
+      <c r="K210" t="s">
+        <v>22</v>
+      </c>
+      <c r="L210">
+        <v>0.99</v>
+      </c>
+      <c r="M210" t="s">
+        <v>22</v>
+      </c>
+      <c r="N210">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="211" spans="10:14">
+      <c r="J211" s="16">
+        <v>39691</v>
+      </c>
+      <c r="K211" t="s">
+        <v>77</v>
+      </c>
+      <c r="L211">
+        <v>1.03</v>
+      </c>
+      <c r="M211" t="s">
+        <v>77</v>
+      </c>
+      <c r="N211">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="212" spans="10:14">
+      <c r="J212" s="16">
+        <v>39721</v>
+      </c>
+      <c r="K212" t="s">
+        <v>77</v>
+      </c>
+      <c r="L212">
+        <v>1.01</v>
+      </c>
+      <c r="M212" t="s">
+        <v>77</v>
+      </c>
+      <c r="N212">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="213" spans="10:14">
+      <c r="J213" s="16">
+        <v>39752</v>
+      </c>
+      <c r="K213" t="s">
+        <v>23</v>
+      </c>
+      <c r="L213">
+        <v>1.01</v>
+      </c>
+      <c r="M213" t="s">
+        <v>23</v>
+      </c>
+      <c r="N213">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="214" spans="10:14">
+      <c r="J214" s="16">
+        <v>39782</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L214" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N214" s="3">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="215" spans="10:14">
+      <c r="J215">
+        <v>2012</v>
+      </c>
+      <c r="L215">
+        <v>0.96535000000000004</v>
+      </c>
+      <c r="N215">
+        <v>1.072492</v>
+      </c>
+    </row>
+    <row r="216" spans="10:14">
+      <c r="J216" s="16">
+        <v>39813</v>
+      </c>
+      <c r="K216" t="s">
+        <v>23</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216" t="s">
+        <v>23</v>
+      </c>
+      <c r="N216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="10:14">
+      <c r="J217" s="16">
+        <v>39844</v>
+      </c>
+      <c r="K217" t="s">
+        <v>77</v>
+      </c>
+      <c r="L217">
+        <v>1.01</v>
+      </c>
+      <c r="M217" t="s">
+        <v>77</v>
+      </c>
+      <c r="N217">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="218" spans="10:14">
+      <c r="J218" s="16">
+        <v>39872</v>
+      </c>
+      <c r="K218" t="s">
+        <v>77</v>
+      </c>
+      <c r="L218">
+        <v>1.03</v>
+      </c>
+      <c r="M218" t="s">
+        <v>77</v>
+      </c>
+      <c r="N218">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="219" spans="10:14">
+      <c r="J219" s="16">
+        <v>39903</v>
+      </c>
+      <c r="K219" t="s">
+        <v>77</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219" t="s">
+        <v>77</v>
+      </c>
+      <c r="N219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="10:14">
+      <c r="J220" s="16">
+        <v>39933</v>
+      </c>
+      <c r="K220" t="s">
+        <v>78</v>
+      </c>
+      <c r="L220">
+        <v>0.95</v>
+      </c>
+      <c r="M220" t="s">
+        <v>78</v>
+      </c>
+      <c r="N220">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="221" spans="10:14">
+      <c r="J221" s="16">
+        <v>39964</v>
+      </c>
+      <c r="K221" t="s">
+        <v>77</v>
+      </c>
+      <c r="L221">
+        <v>0.99</v>
+      </c>
+      <c r="M221" t="s">
+        <v>77</v>
+      </c>
+      <c r="N221">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="222" spans="10:14">
+      <c r="J222" s="16">
+        <v>39994</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L222" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="M222" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N222" s="3">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="223" spans="10:14">
+      <c r="J223" s="16">
+        <v>40025</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L223" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N223" s="3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="224" spans="10:14">
+      <c r="J224" s="16">
+        <v>40056</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L224" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N224" s="3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="225" spans="10:14">
+      <c r="J225" s="16">
+        <v>40086</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L225" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N225" s="3">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="226" spans="10:14">
+      <c r="J226" s="16">
+        <v>40117</v>
+      </c>
+      <c r="K226" t="s">
+        <v>23</v>
+      </c>
+      <c r="L226">
+        <v>0.99</v>
+      </c>
+      <c r="M226" t="s">
+        <v>23</v>
+      </c>
+      <c r="N226">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="227" spans="10:14">
+      <c r="J227" s="16">
+        <v>40147</v>
+      </c>
+      <c r="K227" t="s">
+        <v>77</v>
+      </c>
+      <c r="L227">
+        <v>1.03</v>
+      </c>
+      <c r="M227" t="s">
+        <v>77</v>
+      </c>
+      <c r="N227">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="228" spans="10:14">
+      <c r="J228">
+        <v>2013</v>
+      </c>
+      <c r="L228">
+        <v>0.99746699999999999</v>
+      </c>
+      <c r="N228">
+        <v>1.116255</v>
+      </c>
+    </row>
+    <row r="229" spans="10:14">
+      <c r="J229" s="16">
+        <v>40178</v>
+      </c>
+      <c r="K229" t="s">
+        <v>77</v>
+      </c>
+      <c r="L229">
+        <v>0.97</v>
+      </c>
+      <c r="M229" t="s">
+        <v>77</v>
+      </c>
+      <c r="N229">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="230" spans="10:14">
+      <c r="J230" s="16">
+        <v>40209</v>
+      </c>
+      <c r="K230" t="s">
+        <v>77</v>
+      </c>
+      <c r="L230">
+        <v>1.07</v>
+      </c>
+      <c r="M230" t="s">
+        <v>77</v>
+      </c>
+      <c r="N230">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="231" spans="10:14">
+      <c r="J231" s="16">
+        <v>40237</v>
+      </c>
+      <c r="K231" t="s">
+        <v>78</v>
+      </c>
+      <c r="L231">
+        <v>1.01</v>
+      </c>
+      <c r="M231" t="s">
+        <v>78</v>
+      </c>
+      <c r="N231">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="232" spans="10:14">
+      <c r="J232" s="16">
+        <v>40268</v>
+      </c>
+      <c r="K232" t="s">
+        <v>78</v>
+      </c>
+      <c r="L232">
+        <v>1.03</v>
+      </c>
+      <c r="M232" t="s">
+        <v>78</v>
+      </c>
+      <c r="N232">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="233" spans="10:14">
+      <c r="J233" s="16">
+        <v>40298</v>
+      </c>
+      <c r="K233" t="s">
+        <v>23</v>
+      </c>
+      <c r="L233">
+        <v>1.04</v>
+      </c>
+      <c r="M233" t="s">
+        <v>23</v>
+      </c>
+      <c r="N233">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="234" spans="10:14">
+      <c r="J234" s="16">
+        <v>40329</v>
+      </c>
+      <c r="K234" t="s">
+        <v>22</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234" t="s">
+        <v>22</v>
+      </c>
+      <c r="N234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="10:14">
+      <c r="J235" s="16">
+        <v>40359</v>
+      </c>
+      <c r="K235" t="s">
+        <v>23</v>
+      </c>
+      <c r="L235">
+        <v>0.99</v>
+      </c>
+      <c r="M235" t="s">
+        <v>23</v>
+      </c>
+      <c r="N235">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="236" spans="10:14">
+      <c r="J236" s="16">
+        <v>40390</v>
+      </c>
+      <c r="K236" t="s">
+        <v>23</v>
+      </c>
+      <c r="L236">
+        <v>1.03</v>
+      </c>
+      <c r="M236" t="s">
+        <v>23</v>
+      </c>
+      <c r="N236">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="237" spans="10:14">
+      <c r="J237" s="16">
+        <v>40421</v>
+      </c>
+      <c r="K237" t="s">
+        <v>22</v>
+      </c>
+      <c r="L237">
+        <v>1.01</v>
+      </c>
+      <c r="M237" t="s">
+        <v>22</v>
+      </c>
+      <c r="N237">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="238" spans="10:14">
+      <c r="J238" s="16">
+        <v>40451</v>
+      </c>
+      <c r="K238" t="s">
+        <v>22</v>
+      </c>
+      <c r="L238">
+        <v>1.01</v>
+      </c>
+      <c r="M238" t="s">
+        <v>22</v>
+      </c>
+      <c r="N238">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="239" spans="10:14">
+      <c r="J239" s="16">
+        <v>40482</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L239" s="3">
+        <v>1</v>
+      </c>
+      <c r="M239" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N239" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="240" spans="10:14">
+      <c r="J240" s="16">
+        <v>40512</v>
+      </c>
+      <c r="K240" t="s">
+        <v>22</v>
+      </c>
+      <c r="L240">
+        <v>1.04</v>
+      </c>
+      <c r="M240" t="s">
+        <v>22</v>
+      </c>
+      <c r="N240">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="241" spans="10:14">
+      <c r="J241">
+        <v>2014</v>
+      </c>
+      <c r="L241">
+        <v>1.2194339999999999</v>
+      </c>
+      <c r="N241">
+        <v>1.2406900000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="10:14">
+      <c r="J242" s="16">
+        <v>40543</v>
+      </c>
+      <c r="K242" t="s">
+        <v>78</v>
+      </c>
+      <c r="L242">
+        <v>1.05</v>
+      </c>
+      <c r="M242" t="s">
+        <v>78</v>
+      </c>
+      <c r="N242">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="243" spans="10:14">
+      <c r="J243" s="16">
+        <v>40574</v>
+      </c>
+      <c r="K243" t="s">
+        <v>22</v>
+      </c>
+      <c r="L243">
+        <v>0.93</v>
+      </c>
+      <c r="M243" t="s">
+        <v>22</v>
+      </c>
+      <c r="N243">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="244" spans="10:14">
+      <c r="J244" s="16">
+        <v>40602</v>
+      </c>
+      <c r="K244" t="s">
+        <v>78</v>
+      </c>
+      <c r="L244">
+        <v>1.01</v>
+      </c>
+      <c r="M244" t="s">
+        <v>78</v>
+      </c>
+      <c r="N244">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="245" spans="10:14">
+      <c r="J245" s="16">
+        <v>40633</v>
+      </c>
+      <c r="K245" t="s">
+        <v>77</v>
+      </c>
+      <c r="L245">
+        <v>1.01</v>
+      </c>
+      <c r="M245" t="s">
+        <v>77</v>
+      </c>
+      <c r="N245">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="246" spans="10:14">
+      <c r="J246" s="16">
+        <v>40663</v>
+      </c>
+      <c r="K246" t="s">
+        <v>77</v>
+      </c>
+      <c r="L246">
+        <v>1.01</v>
+      </c>
+      <c r="M246" t="s">
+        <v>77</v>
+      </c>
+      <c r="N246">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="247" spans="10:14">
+      <c r="J247" s="16">
+        <v>40694</v>
+      </c>
+      <c r="K247" t="s">
+        <v>77</v>
+      </c>
+      <c r="L247">
+        <v>0.98</v>
+      </c>
+      <c r="M247" t="s">
+        <v>77</v>
+      </c>
+      <c r="N247">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="248" spans="10:14">
+      <c r="J248" s="16">
+        <v>40724</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L248" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="M248" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N248" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="249" spans="10:14">
+      <c r="J249" s="16">
+        <v>40755</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L249" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N249" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="251" spans="10:14">
+      <c r="J251" t="s">
+        <v>13</v>
+      </c>
+      <c r="L251" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="N251" s="5">
+        <v>0.214</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
